--- a/simulations/cleaned_inclusion_exclusion/van_Dis_2020 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/van_Dis_2020 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -719,7 +719,7 @@
         <v>0.9305555555555556</v>
       </c>
       <c r="E3">
-        <v>0.9722222222222222</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.6609333917616126</v>
+        <v>0.6591805433829974</v>
       </c>
       <c r="I3">
-        <v>0.07311604338437377</v>
+        <v>0.07158544365920691</v>
       </c>
       <c r="J3">
         <v>0.6805555555555556</v>
       </c>
       <c r="K3">
-        <v>698.6388888888889</v>
+        <v>684.7777777777778</v>
       </c>
       <c r="L3">
         <v>7</v>
@@ -755,34 +755,34 @@
         <v>64</v>
       </c>
       <c r="Q3">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="R3">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="S3">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="T3">
-        <v>826</v>
+        <v>715</v>
       </c>
       <c r="U3">
-        <v>1651</v>
+        <v>1639</v>
       </c>
       <c r="V3">
-        <v>9045</v>
+        <v>8990</v>
       </c>
       <c r="W3">
-        <v>8966</v>
+        <v>8970</v>
       </c>
       <c r="X3">
-        <v>8830</v>
+        <v>8800</v>
       </c>
       <c r="Y3">
-        <v>8230</v>
+        <v>8341</v>
       </c>
       <c r="Z3">
-        <v>7405</v>
+        <v>7417</v>
       </c>
       <c r="AA3">
         <v>65</v>
@@ -800,19 +800,19 @@
         <v>8</v>
       </c>
       <c r="AF3">
-        <v>0.998785</v>
+        <v>0.992712</v>
       </c>
       <c r="AG3">
-        <v>0.990062</v>
+        <v>0.9905040000000001</v>
       </c>
       <c r="AH3">
-        <v>0.975044</v>
+        <v>0.971731</v>
       </c>
       <c r="AI3">
-        <v>0.90879</v>
+        <v>0.9210469999999999</v>
       </c>
       <c r="AJ3">
-        <v>0.81769</v>
+        <v>0.819015</v>
       </c>
     </row>
   </sheetData>
